--- a/Data/DRIVE/Alpha.xlsx
+++ b/Data/DRIVE/Alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>01_manual1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>CAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidence=0.994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidence=0.993</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,13 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,14 +469,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -645,7 +657,9 @@
         <v>0.8</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -665,31 +679,31 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0.99</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>0.91700000000000004</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D9" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.755</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.751</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.751</v>
-      </c>
       <c r="G9" s="1">
-        <v>0.86599999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>0.70399999999999996</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>0.79100000000000004</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -722,38 +736,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="C11" s="1">
-        <v>0.97399999999999998</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>0.90300000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.89800000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F11" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="G11" s="1">
-        <v>0.94</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H11" s="1">
-        <v>0.91800000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I11" s="1">
         <v>0.92700000000000005</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -773,31 +787,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.99</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.89300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>0.59</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E13" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="F13" s="1">
-        <v>0.71199999999999997</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G13" s="1">
-        <v>0.73499999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="H13" s="1">
-        <v>0.66900000000000004</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="I13" s="1">
         <v>0.70499999999999996</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -830,38 +844,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="C15" s="1">
-        <v>0.96699999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>0.85899999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.84899999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="F15" s="1">
         <v>0.91600000000000004</v>
       </c>
       <c r="G15" s="1">
-        <v>0.90500000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="I15" s="1">
         <v>0.90400000000000003</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -881,31 +895,31 @@
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="C17" s="1">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="D17" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="E17" s="1">
-        <v>0.379</v>
+        <v>0.373</v>
       </c>
       <c r="F17" s="1">
-        <v>0.67300000000000004</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G17" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>0.63400000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="I17" s="1">
-        <v>0.62</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -938,38 +952,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="C19" s="1">
         <v>0.96099999999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>0.81499999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E19" s="1">
-        <v>0.79900000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="F19" s="1">
-        <v>0.90500000000000003</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="G19" s="1">
-        <v>0.87</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>0.89900000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="I19" s="1">
         <v>0.88100000000000001</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
@@ -1174,7 +1188,9 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
@@ -1194,31 +1210,31 @@
         <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>0.88300000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D30" s="1">
-        <v>0.748</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>0.68200000000000005</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="F30" s="1">
-        <v>0.70299999999999996</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="G30" s="1">
-        <v>0.86299999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="H30" s="1">
-        <v>0.72799999999999998</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="I30" s="1">
-        <v>0.78</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1251,38 +1267,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
       <c r="C32" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D32" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="E32" s="1">
-        <v>0.89100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F32" s="1">
-        <v>0.91400000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="G32" s="1">
-        <v>0.93400000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="H32" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="I32" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -1302,31 +1318,31 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>0.85499999999999998</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="D34" s="1">
-        <v>0.59199999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E34" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="F34" s="1">
-        <v>0.67200000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G34" s="1">
-        <v>0.748</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H34" s="1">
-        <v>0.70199999999999996</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="I34" s="1">
-        <v>0.71399999999999997</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1359,38 +1375,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="1">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
       <c r="C36" s="1">
-        <v>0.95699999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D36" s="1">
-        <v>0.85299999999999998</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>0.86</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F36" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G36" s="1">
-        <v>0.90300000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H36" s="1">
-        <v>0.91800000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="I36" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
@@ -1410,31 +1426,31 @@
         <v>11</v>
       </c>
       <c r="B38" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>0.82599999999999996</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="D38" s="1">
-        <v>0.437</v>
+        <v>0.43</v>
       </c>
       <c r="E38" s="1">
-        <v>0.44900000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="F38" s="1">
-        <v>0.64200000000000002</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="G38" s="1">
-        <v>0.63300000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="H38" s="1">
-        <v>0.67600000000000005</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="I38" s="1">
-        <v>0.64800000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1467,38 +1483,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="1">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="C40" s="1">
-        <v>0.94899999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D40" s="1">
-        <v>0.81100000000000005</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="E40" s="1">
-        <v>0.82899999999999996</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="F40" s="1">
-        <v>0.89800000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G40" s="1">
-        <v>0.872</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="H40" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I40" s="1">
-        <v>0.88800000000000001</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
